--- a/data.xlsx
+++ b/data.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\چشمه‌های‌علم\دانشگاه\پروژه\code\AR-compression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D821B13-8025-4AF8-91C9-159DE06BC71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3749245E-1BC9-462D-8B4A-ED0D3C3D03D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="285">
   <si>
     <t>file_name</t>
   </si>
@@ -31,12 +33,6 @@
     <t>aCoefs_optimized</t>
   </si>
   <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>std</t>
-  </si>
-  <si>
     <t>Miniatura_en_mural_persa_de_Chehel_Sotun_(palacio_de_los_Cuarenta_Pilares)_de_Isfahn,_Irn_-_28_0.jpg</t>
   </si>
   <si>
@@ -845,13 +841,49 @@
   </si>
   <si>
     <t>[0.29670283 0.13163952 0.27739768 0.29094397]</t>
+  </si>
+  <si>
+    <t>mean_value</t>
+  </si>
+  <si>
+    <t>std_value</t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>Mahmud Farshchian</t>
+  </si>
+  <si>
+    <t>Muraqqa-e-Golshan</t>
+  </si>
+  <si>
+    <t>Chehel sotun</t>
+  </si>
+  <si>
+    <t>Mohamad Zaman</t>
+  </si>
+  <si>
+    <t>Majid Mehregan</t>
+  </si>
+  <si>
+    <t>Hossein Behzad</t>
+  </si>
+  <si>
+    <t>Panj Ganj</t>
+  </si>
+  <si>
+    <t>Salman Savoji</t>
+  </si>
+  <si>
+    <t>Shahnameh Ferdowsi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -863,6 +895,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -900,9 +938,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1209,7 +1250,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection sqref="A1:E91"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1219,7 +1262,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1229,21 +1272,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2">
         <v>1022.875</v>
@@ -1254,13 +1297,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
       </c>
       <c r="D3">
         <v>1018</v>
@@ -1271,13 +1314,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4">
         <v>1018.91796875</v>
@@ -1288,13 +1331,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
       </c>
       <c r="D5">
         <v>1016.328125</v>
@@ -1305,13 +1348,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
       </c>
       <c r="D6">
         <v>1022.921875</v>
@@ -1322,13 +1365,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
       </c>
       <c r="D7">
         <v>1018.19140625</v>
@@ -1339,13 +1382,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8">
         <v>1018.33984375</v>
@@ -1356,13 +1399,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
       </c>
       <c r="D9">
         <v>1016.33203125</v>
@@ -1373,13 +1416,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
       </c>
       <c r="D10">
         <v>1019.8671875</v>
@@ -1390,13 +1433,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
       </c>
       <c r="D11">
         <v>1019.26953125</v>
@@ -1407,13 +1450,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
       </c>
       <c r="D12">
         <v>1017.15234375</v>
@@ -1424,13 +1467,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
         <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
       </c>
       <c r="D13">
         <v>1020.0625</v>
@@ -1441,13 +1484,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
         <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
       </c>
       <c r="D14">
         <v>1019.94921875</v>
@@ -1458,13 +1501,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
         <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
       </c>
       <c r="D15">
         <v>1020.25</v>
@@ -1475,13 +1518,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
         <v>47</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
       </c>
       <c r="D16">
         <v>1016.66015625</v>
@@ -1492,13 +1535,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
         <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
       </c>
       <c r="D17">
         <v>1019.6875</v>
@@ -1509,13 +1552,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
         <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
       </c>
       <c r="D18">
         <v>1021.22265625</v>
@@ -1526,13 +1569,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
         <v>56</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
       </c>
       <c r="D19">
         <v>1017.94140625</v>
@@ -1543,13 +1586,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
         <v>59</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" t="s">
-        <v>61</v>
       </c>
       <c r="D20">
         <v>1016.796875</v>
@@ -1560,13 +1603,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
         <v>62</v>
-      </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
       </c>
       <c r="D21">
         <v>1023.33984375</v>
@@ -1577,13 +1620,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
         <v>65</v>
-      </c>
-      <c r="B22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
       </c>
       <c r="D22">
         <v>1020.375</v>
@@ -1594,13 +1637,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
         <v>68</v>
-      </c>
-      <c r="B23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" t="s">
-        <v>70</v>
       </c>
       <c r="D23">
         <v>1022.0546875</v>
@@ -1611,13 +1654,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
         <v>71</v>
-      </c>
-      <c r="B24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" t="s">
-        <v>73</v>
       </c>
       <c r="D24">
         <v>1017.1796875</v>
@@ -1628,13 +1671,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
         <v>74</v>
-      </c>
-      <c r="B25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" t="s">
-        <v>76</v>
       </c>
       <c r="D25">
         <v>1021.734375</v>
@@ -1645,13 +1688,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
         <v>77</v>
-      </c>
-      <c r="B26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" t="s">
-        <v>79</v>
       </c>
       <c r="D26">
         <v>1023.4296875</v>
@@ -1662,13 +1705,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
         <v>80</v>
-      </c>
-      <c r="B27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" t="s">
-        <v>82</v>
       </c>
       <c r="D27">
         <v>1020.765625</v>
@@ -1679,13 +1722,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
         <v>83</v>
-      </c>
-      <c r="B28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" t="s">
-        <v>85</v>
       </c>
       <c r="D28">
         <v>1017.45703125</v>
@@ -1696,13 +1739,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
         <v>86</v>
-      </c>
-      <c r="B29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" t="s">
-        <v>88</v>
       </c>
       <c r="D29">
         <v>1016.5859375</v>
@@ -1713,13 +1756,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
         <v>89</v>
-      </c>
-      <c r="B30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" t="s">
-        <v>91</v>
       </c>
       <c r="D30">
         <v>1022.67578125</v>
@@ -1730,13 +1773,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
         <v>92</v>
-      </c>
-      <c r="B31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" t="s">
-        <v>94</v>
       </c>
       <c r="D31">
         <v>1022.4765625</v>
@@ -1747,13 +1790,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
         <v>95</v>
-      </c>
-      <c r="B32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" t="s">
-        <v>97</v>
       </c>
       <c r="D32">
         <v>1022.796875</v>
@@ -1764,13 +1807,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
         <v>98</v>
-      </c>
-      <c r="B33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" t="s">
-        <v>100</v>
       </c>
       <c r="D33">
         <v>1021.9453125</v>
@@ -1781,13 +1824,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
         <v>101</v>
-      </c>
-      <c r="B34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" t="s">
-        <v>103</v>
       </c>
       <c r="D34">
         <v>1023.671875</v>
@@ -1798,13 +1841,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
         <v>104</v>
-      </c>
-      <c r="B35" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" t="s">
-        <v>106</v>
       </c>
       <c r="D35">
         <v>1023.765625</v>
@@ -1815,13 +1858,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
         <v>107</v>
-      </c>
-      <c r="B36" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" t="s">
-        <v>109</v>
       </c>
       <c r="D36">
         <v>1023.5390625</v>
@@ -1832,13 +1875,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
         <v>110</v>
-      </c>
-      <c r="B37" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" t="s">
-        <v>112</v>
       </c>
       <c r="D37">
         <v>1023.59765625</v>
@@ -1849,13 +1892,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
         <v>113</v>
-      </c>
-      <c r="B38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" t="s">
-        <v>115</v>
       </c>
       <c r="D38">
         <v>1021.3359375</v>
@@ -1866,13 +1909,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="s">
         <v>116</v>
-      </c>
-      <c r="B39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" t="s">
-        <v>118</v>
       </c>
       <c r="D39">
         <v>1024</v>
@@ -1883,13 +1926,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s">
         <v>119</v>
-      </c>
-      <c r="B40" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" t="s">
-        <v>121</v>
       </c>
       <c r="D40">
         <v>1023.4921875</v>
@@ -1900,13 +1943,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
         <v>122</v>
-      </c>
-      <c r="B41" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" t="s">
-        <v>124</v>
       </c>
       <c r="D41">
         <v>1016.86328125</v>
@@ -1917,13 +1960,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
         <v>125</v>
-      </c>
-      <c r="B42" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" t="s">
-        <v>127</v>
       </c>
       <c r="D42">
         <v>1016.46875</v>
@@ -1934,13 +1977,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" t="s">
         <v>128</v>
-      </c>
-      <c r="B43" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" t="s">
-        <v>130</v>
       </c>
       <c r="D43">
         <v>1022.7734375</v>
@@ -1951,13 +1994,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" t="s">
         <v>131</v>
-      </c>
-      <c r="B44" t="s">
-        <v>132</v>
-      </c>
-      <c r="C44" t="s">
-        <v>133</v>
       </c>
       <c r="D44">
         <v>1023.85546875</v>
@@ -1968,13 +2011,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" t="s">
         <v>134</v>
-      </c>
-      <c r="B45" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" t="s">
-        <v>136</v>
       </c>
       <c r="D45">
         <v>1016.125</v>
@@ -1985,13 +2028,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
         <v>137</v>
-      </c>
-      <c r="B46" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" t="s">
-        <v>139</v>
       </c>
       <c r="D46">
         <v>1023.94921875</v>
@@ -2002,13 +2045,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
         <v>140</v>
-      </c>
-      <c r="B47" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" t="s">
-        <v>142</v>
       </c>
       <c r="D47">
         <v>1020.29296875</v>
@@ -2019,13 +2062,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" t="s">
         <v>143</v>
-      </c>
-      <c r="B48" t="s">
-        <v>144</v>
-      </c>
-      <c r="C48" t="s">
-        <v>145</v>
       </c>
       <c r="D48">
         <v>1016.9140625</v>
@@ -2036,13 +2079,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" t="s">
         <v>146</v>
-      </c>
-      <c r="B49" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" t="s">
-        <v>148</v>
       </c>
       <c r="D49">
         <v>1014.4375</v>
@@ -2053,13 +2096,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
         <v>149</v>
-      </c>
-      <c r="B50" t="s">
-        <v>150</v>
-      </c>
-      <c r="C50" t="s">
-        <v>151</v>
       </c>
       <c r="D50">
         <v>1020.33984375</v>
@@ -2070,13 +2113,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" t="s">
         <v>152</v>
-      </c>
-      <c r="B51" t="s">
-        <v>153</v>
-      </c>
-      <c r="C51" t="s">
-        <v>154</v>
       </c>
       <c r="D51">
         <v>1021.8046875</v>
@@ -2087,13 +2130,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" t="s">
         <v>155</v>
-      </c>
-      <c r="B52" t="s">
-        <v>156</v>
-      </c>
-      <c r="C52" t="s">
-        <v>157</v>
       </c>
       <c r="D52">
         <v>1016.1640625</v>
@@ -2104,13 +2147,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" t="s">
         <v>158</v>
-      </c>
-      <c r="B53" t="s">
-        <v>159</v>
-      </c>
-      <c r="C53" t="s">
-        <v>160</v>
       </c>
       <c r="D53">
         <v>1021.99609375</v>
@@ -2121,13 +2164,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
         <v>161</v>
-      </c>
-      <c r="B54" t="s">
-        <v>162</v>
-      </c>
-      <c r="C54" t="s">
-        <v>163</v>
       </c>
       <c r="D54">
         <v>1016.12109375</v>
@@ -2138,13 +2181,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" t="s">
         <v>164</v>
-      </c>
-      <c r="B55" t="s">
-        <v>165</v>
-      </c>
-      <c r="C55" t="s">
-        <v>166</v>
       </c>
       <c r="D55">
         <v>1021.359375</v>
@@ -2155,13 +2198,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" t="s">
         <v>167</v>
-      </c>
-      <c r="B56" t="s">
-        <v>168</v>
-      </c>
-      <c r="C56" t="s">
-        <v>169</v>
       </c>
       <c r="D56">
         <v>1015.98828125</v>
@@ -2172,13 +2215,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" t="s">
         <v>170</v>
-      </c>
-      <c r="B57" t="s">
-        <v>171</v>
-      </c>
-      <c r="C57" t="s">
-        <v>172</v>
       </c>
       <c r="D57">
         <v>1022.61328125</v>
@@ -2189,13 +2232,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" t="s">
         <v>173</v>
-      </c>
-      <c r="B58" t="s">
-        <v>174</v>
-      </c>
-      <c r="C58" t="s">
-        <v>175</v>
       </c>
       <c r="D58">
         <v>1018.05859375</v>
@@ -2206,13 +2249,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" t="s">
         <v>176</v>
-      </c>
-      <c r="B59" t="s">
-        <v>177</v>
-      </c>
-      <c r="C59" t="s">
-        <v>178</v>
       </c>
       <c r="D59">
         <v>1016.7421875</v>
@@ -2223,13 +2266,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" t="s">
         <v>179</v>
-      </c>
-      <c r="B60" t="s">
-        <v>180</v>
-      </c>
-      <c r="C60" t="s">
-        <v>181</v>
       </c>
       <c r="D60">
         <v>1019.6875</v>
@@ -2240,13 +2283,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" t="s">
         <v>182</v>
-      </c>
-      <c r="B61" t="s">
-        <v>183</v>
-      </c>
-      <c r="C61" t="s">
-        <v>184</v>
       </c>
       <c r="D61">
         <v>1018.5</v>
@@ -2257,13 +2300,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" t="s">
         <v>185</v>
-      </c>
-      <c r="B62" t="s">
-        <v>186</v>
-      </c>
-      <c r="C62" t="s">
-        <v>187</v>
       </c>
       <c r="D62">
         <v>1016.94921875</v>
@@ -2274,13 +2317,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" t="s">
         <v>188</v>
-      </c>
-      <c r="B63" t="s">
-        <v>189</v>
-      </c>
-      <c r="C63" t="s">
-        <v>190</v>
       </c>
       <c r="D63">
         <v>1020.73046875</v>
@@ -2291,13 +2334,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" t="s">
         <v>191</v>
-      </c>
-      <c r="B64" t="s">
-        <v>192</v>
-      </c>
-      <c r="C64" t="s">
-        <v>193</v>
       </c>
       <c r="D64">
         <v>1022.97265625</v>
@@ -2308,13 +2351,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" t="s">
         <v>194</v>
-      </c>
-      <c r="B65" t="s">
-        <v>195</v>
-      </c>
-      <c r="C65" t="s">
-        <v>196</v>
       </c>
       <c r="D65">
         <v>1020.07421875</v>
@@ -2325,13 +2368,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" t="s">
         <v>197</v>
-      </c>
-      <c r="B66" t="s">
-        <v>198</v>
-      </c>
-      <c r="C66" t="s">
-        <v>199</v>
       </c>
       <c r="D66">
         <v>1023.99609375</v>
@@ -2342,13 +2385,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" t="s">
         <v>200</v>
-      </c>
-      <c r="B67" t="s">
-        <v>201</v>
-      </c>
-      <c r="C67" t="s">
-        <v>202</v>
       </c>
       <c r="D67">
         <v>1017.1328125</v>
@@ -2359,13 +2402,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" t="s">
         <v>203</v>
-      </c>
-      <c r="B68" t="s">
-        <v>204</v>
-      </c>
-      <c r="C68" t="s">
-        <v>205</v>
       </c>
       <c r="D68">
         <v>1019.6328125</v>
@@ -2376,13 +2419,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>204</v>
+      </c>
+      <c r="B69" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" t="s">
         <v>206</v>
-      </c>
-      <c r="B69" t="s">
-        <v>207</v>
-      </c>
-      <c r="C69" t="s">
-        <v>208</v>
       </c>
       <c r="D69">
         <v>1022.640625</v>
@@ -2393,13 +2436,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>207</v>
+      </c>
+      <c r="B70" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" t="s">
         <v>209</v>
-      </c>
-      <c r="B70" t="s">
-        <v>210</v>
-      </c>
-      <c r="C70" t="s">
-        <v>211</v>
       </c>
       <c r="D70">
         <v>1021.52734375</v>
@@ -2410,13 +2453,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" t="s">
         <v>212</v>
-      </c>
-      <c r="B71" t="s">
-        <v>213</v>
-      </c>
-      <c r="C71" t="s">
-        <v>214</v>
       </c>
       <c r="D71">
         <v>1019.125</v>
@@ -2427,13 +2470,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>213</v>
+      </c>
+      <c r="B72" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" t="s">
         <v>215</v>
-      </c>
-      <c r="B72" t="s">
-        <v>216</v>
-      </c>
-      <c r="C72" t="s">
-        <v>217</v>
       </c>
       <c r="D72">
         <v>1022.328125</v>
@@ -2444,13 +2487,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>216</v>
+      </c>
+      <c r="B73" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" t="s">
         <v>218</v>
-      </c>
-      <c r="B73" t="s">
-        <v>219</v>
-      </c>
-      <c r="C73" t="s">
-        <v>220</v>
       </c>
       <c r="D73">
         <v>1016.015625</v>
@@ -2461,13 +2504,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>219</v>
+      </c>
+      <c r="B74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" t="s">
         <v>221</v>
-      </c>
-      <c r="B74" t="s">
-        <v>222</v>
-      </c>
-      <c r="C74" t="s">
-        <v>223</v>
       </c>
       <c r="D74">
         <v>1023.01953125</v>
@@ -2478,13 +2521,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>222</v>
+      </c>
+      <c r="B75" t="s">
+        <v>223</v>
+      </c>
+      <c r="C75" t="s">
         <v>224</v>
-      </c>
-      <c r="B75" t="s">
-        <v>225</v>
-      </c>
-      <c r="C75" t="s">
-        <v>226</v>
       </c>
       <c r="D75">
         <v>1016.0234375</v>
@@ -2495,13 +2538,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>225</v>
+      </c>
+      <c r="B76" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" t="s">
         <v>227</v>
-      </c>
-      <c r="B76" t="s">
-        <v>228</v>
-      </c>
-      <c r="C76" t="s">
-        <v>229</v>
       </c>
       <c r="D76">
         <v>1016.99609375</v>
@@ -2512,13 +2555,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>228</v>
+      </c>
+      <c r="B77" t="s">
+        <v>229</v>
+      </c>
+      <c r="C77" t="s">
         <v>230</v>
-      </c>
-      <c r="B77" t="s">
-        <v>231</v>
-      </c>
-      <c r="C77" t="s">
-        <v>232</v>
       </c>
       <c r="D77">
         <v>1020.2734375</v>
@@ -2529,13 +2572,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>231</v>
+      </c>
+      <c r="B78" t="s">
+        <v>232</v>
+      </c>
+      <c r="C78" t="s">
         <v>233</v>
-      </c>
-      <c r="B78" t="s">
-        <v>234</v>
-      </c>
-      <c r="C78" t="s">
-        <v>235</v>
       </c>
       <c r="D78">
         <v>1014.3515625</v>
@@ -2546,13 +2589,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>234</v>
+      </c>
+      <c r="B79" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" t="s">
         <v>236</v>
-      </c>
-      <c r="B79" t="s">
-        <v>237</v>
-      </c>
-      <c r="C79" t="s">
-        <v>238</v>
       </c>
       <c r="D79">
         <v>1023.9765625</v>
@@ -2563,13 +2606,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" t="s">
         <v>239</v>
-      </c>
-      <c r="B80" t="s">
-        <v>240</v>
-      </c>
-      <c r="C80" t="s">
-        <v>241</v>
       </c>
       <c r="D80">
         <v>1018.609375</v>
@@ -2580,13 +2623,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>240</v>
+      </c>
+      <c r="B81" t="s">
+        <v>241</v>
+      </c>
+      <c r="C81" t="s">
         <v>242</v>
-      </c>
-      <c r="B81" t="s">
-        <v>243</v>
-      </c>
-      <c r="C81" t="s">
-        <v>244</v>
       </c>
       <c r="D81">
         <v>1019.65234375</v>
@@ -2597,13 +2640,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>243</v>
+      </c>
+      <c r="B82" t="s">
+        <v>244</v>
+      </c>
+      <c r="C82" t="s">
         <v>245</v>
-      </c>
-      <c r="B82" t="s">
-        <v>246</v>
-      </c>
-      <c r="C82" t="s">
-        <v>247</v>
       </c>
       <c r="D82">
         <v>1023.296875</v>
@@ -2614,13 +2657,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>246</v>
+      </c>
+      <c r="B83" t="s">
+        <v>247</v>
+      </c>
+      <c r="C83" t="s">
         <v>248</v>
-      </c>
-      <c r="B83" t="s">
-        <v>249</v>
-      </c>
-      <c r="C83" t="s">
-        <v>250</v>
       </c>
       <c r="D83">
         <v>1022.26171875</v>
@@ -2631,13 +2674,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>249</v>
+      </c>
+      <c r="B84" t="s">
+        <v>250</v>
+      </c>
+      <c r="C84" t="s">
         <v>251</v>
-      </c>
-      <c r="B84" t="s">
-        <v>252</v>
-      </c>
-      <c r="C84" t="s">
-        <v>253</v>
       </c>
       <c r="D84">
         <v>1023.25390625</v>
@@ -2648,13 +2691,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>252</v>
+      </c>
+      <c r="B85" t="s">
+        <v>253</v>
+      </c>
+      <c r="C85" t="s">
         <v>254</v>
-      </c>
-      <c r="B85" t="s">
-        <v>255</v>
-      </c>
-      <c r="C85" t="s">
-        <v>256</v>
       </c>
       <c r="D85">
         <v>1022.7109375</v>
@@ -2665,13 +2708,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>255</v>
+      </c>
+      <c r="B86" t="s">
+        <v>256</v>
+      </c>
+      <c r="C86" t="s">
         <v>257</v>
-      </c>
-      <c r="B86" t="s">
-        <v>258</v>
-      </c>
-      <c r="C86" t="s">
-        <v>259</v>
       </c>
       <c r="D86">
         <v>1022.359375</v>
@@ -2682,13 +2725,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>258</v>
+      </c>
+      <c r="B87" t="s">
+        <v>259</v>
+      </c>
+      <c r="C87" t="s">
         <v>260</v>
-      </c>
-      <c r="B87" t="s">
-        <v>261</v>
-      </c>
-      <c r="C87" t="s">
-        <v>262</v>
       </c>
       <c r="D87">
         <v>1017.63671875</v>
@@ -2699,13 +2742,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>261</v>
+      </c>
+      <c r="B88" t="s">
+        <v>262</v>
+      </c>
+      <c r="C88" t="s">
         <v>263</v>
-      </c>
-      <c r="B88" t="s">
-        <v>264</v>
-      </c>
-      <c r="C88" t="s">
-        <v>265</v>
       </c>
       <c r="D88">
         <v>1022.88671875</v>
@@ -2716,13 +2759,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>264</v>
+      </c>
+      <c r="B89" t="s">
+        <v>265</v>
+      </c>
+      <c r="C89" t="s">
         <v>266</v>
-      </c>
-      <c r="B89" t="s">
-        <v>267</v>
-      </c>
-      <c r="C89" t="s">
-        <v>268</v>
       </c>
       <c r="D89">
         <v>1021.734375</v>
@@ -2733,13 +2776,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>267</v>
+      </c>
+      <c r="B90" t="s">
+        <v>268</v>
+      </c>
+      <c r="C90" t="s">
         <v>269</v>
-      </c>
-      <c r="B90" t="s">
-        <v>270</v>
-      </c>
-      <c r="C90" t="s">
-        <v>271</v>
       </c>
       <c r="D90">
         <v>1018.63671875</v>
@@ -2750,13 +2793,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>270</v>
+      </c>
+      <c r="B91" t="s">
+        <v>271</v>
+      </c>
+      <c r="C91" t="s">
         <v>272</v>
-      </c>
-      <c r="B91" t="s">
-        <v>273</v>
-      </c>
-      <c r="C91" t="s">
-        <v>274</v>
       </c>
       <c r="D91">
         <v>1022.19140625</v>
@@ -2768,4 +2811,2189 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CECFD58-97A4-4DDB-BE88-A2F1DB99D04C}">
+  <dimension ref="A1:F91"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74:E79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="135.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" customWidth="1"/>
+    <col min="3" max="4" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2">
+        <v>1022.19140625</v>
+      </c>
+      <c r="F2">
+        <v>2810.4020464307951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3">
+        <v>1023.671875</v>
+      </c>
+      <c r="F3">
+        <v>3721.478765871705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4">
+        <v>1023.765625</v>
+      </c>
+      <c r="F4">
+        <v>2606.9731834914141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5">
+        <v>1023.5390625</v>
+      </c>
+      <c r="F5">
+        <v>4029.3000136545579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6">
+        <v>1023.59765625</v>
+      </c>
+      <c r="F6">
+        <v>2629.1120452946188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7">
+        <v>1021.3359375</v>
+      </c>
+      <c r="F7">
+        <v>1960.453990300078</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8">
+        <v>1024</v>
+      </c>
+      <c r="F8">
+        <v>4139.7709204058019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9">
+        <v>1023.4921875</v>
+      </c>
+      <c r="F9">
+        <v>3445.622316560024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10">
+        <v>1016.86328125</v>
+      </c>
+      <c r="F10">
+        <v>2564.769818051755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11">
+        <v>1016.46875</v>
+      </c>
+      <c r="F11">
+        <v>4042.883912153357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12">
+        <v>1022.7734375</v>
+      </c>
+      <c r="F12">
+        <v>3362.3629867876298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13">
+        <v>1023.85546875</v>
+      </c>
+      <c r="F13">
+        <v>3513.453253462606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14">
+        <v>1016.125</v>
+      </c>
+      <c r="F14">
+        <v>3204.6154069170302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15">
+        <v>1023.94921875</v>
+      </c>
+      <c r="F15">
+        <v>3839.6081212494869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16">
+        <v>1020.29296875</v>
+      </c>
+      <c r="F16">
+        <v>2722.7156788903908</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17">
+        <v>1016.9140625</v>
+      </c>
+      <c r="F17">
+        <v>2800.5608786102548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18">
+        <v>1014.4375</v>
+      </c>
+      <c r="F18">
+        <v>2789.4263054042581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19">
+        <v>1020.33984375</v>
+      </c>
+      <c r="F19">
+        <v>3199.0448864133609</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20">
+        <v>1021.8046875</v>
+      </c>
+      <c r="F20">
+        <v>3096.8471531507698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21">
+        <v>1016.1640625</v>
+      </c>
+      <c r="F21">
+        <v>3066.6702162558981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" t="s">
+        <v>281</v>
+      </c>
+      <c r="C22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22">
+        <v>1021.99609375</v>
+      </c>
+      <c r="F22">
+        <v>3379.3311011783071</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23">
+        <v>1016.12109375</v>
+      </c>
+      <c r="F23">
+        <v>3726.9079285639132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" t="s">
+        <v>281</v>
+      </c>
+      <c r="C24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24">
+        <v>1021.359375</v>
+      </c>
+      <c r="F24">
+        <v>2212.668908575029</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" t="s">
+        <v>281</v>
+      </c>
+      <c r="C25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25">
+        <v>1015.98828125</v>
+      </c>
+      <c r="F25">
+        <v>2634.9555921341289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" t="s">
+        <v>281</v>
+      </c>
+      <c r="C26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26">
+        <v>1022.61328125</v>
+      </c>
+      <c r="F26">
+        <v>3242.1952118672398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" t="s">
+        <v>281</v>
+      </c>
+      <c r="C27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27">
+        <v>1018.05859375</v>
+      </c>
+      <c r="F27">
+        <v>3806.6014801392098</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" t="s">
+        <v>281</v>
+      </c>
+      <c r="C28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28">
+        <v>1016.7421875</v>
+      </c>
+      <c r="F28">
+        <v>4320.9576353694692</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29">
+        <v>1019.6875</v>
+      </c>
+      <c r="F29">
+        <v>1927.918488738243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30">
+        <v>1018.5</v>
+      </c>
+      <c r="F30">
+        <v>2269.6500298091109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" t="s">
+        <v>281</v>
+      </c>
+      <c r="C31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31">
+        <v>1016.94921875</v>
+      </c>
+      <c r="F31">
+        <v>1985.324064719036</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" t="s">
+        <v>276</v>
+      </c>
+      <c r="C32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32">
+        <v>1020.73046875</v>
+      </c>
+      <c r="F32">
+        <v>2079.1311177260209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" t="s">
+        <v>276</v>
+      </c>
+      <c r="C33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33">
+        <v>1022.97265625</v>
+      </c>
+      <c r="F33">
+        <v>2255.053279242215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" t="s">
+        <v>276</v>
+      </c>
+      <c r="C34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34">
+        <v>1020.07421875</v>
+      </c>
+      <c r="F34">
+        <v>2319.7823422867341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>195</v>
+      </c>
+      <c r="B35" t="s">
+        <v>276</v>
+      </c>
+      <c r="C35" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" t="s">
+        <v>197</v>
+      </c>
+      <c r="E35">
+        <v>1023.99609375</v>
+      </c>
+      <c r="F35">
+        <v>4229.6820502348037</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36" t="s">
+        <v>276</v>
+      </c>
+      <c r="C36" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36">
+        <v>1017.1328125</v>
+      </c>
+      <c r="F36">
+        <v>2786.7426560050972</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" t="s">
+        <v>276</v>
+      </c>
+      <c r="C37" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" t="s">
+        <v>203</v>
+      </c>
+      <c r="E37">
+        <v>1019.6328125</v>
+      </c>
+      <c r="F37">
+        <v>2182.809427775554</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" t="s">
+        <v>276</v>
+      </c>
+      <c r="C38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" t="s">
+        <v>209</v>
+      </c>
+      <c r="E38">
+        <v>1021.52734375</v>
+      </c>
+      <c r="F38">
+        <v>2391.9622042900928</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>210</v>
+      </c>
+      <c r="B39" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" t="s">
+        <v>211</v>
+      </c>
+      <c r="D39" t="s">
+        <v>212</v>
+      </c>
+      <c r="E39">
+        <v>1019.125</v>
+      </c>
+      <c r="F39">
+        <v>2828.89406117921</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" t="s">
+        <v>276</v>
+      </c>
+      <c r="C40" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40">
+        <v>1022.328125</v>
+      </c>
+      <c r="F40">
+        <v>2337.4071258600811</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>216</v>
+      </c>
+      <c r="B41" t="s">
+        <v>276</v>
+      </c>
+      <c r="C41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" t="s">
+        <v>218</v>
+      </c>
+      <c r="E41">
+        <v>1016.015625</v>
+      </c>
+      <c r="F41">
+        <v>5276.6345356859192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>219</v>
+      </c>
+      <c r="B42" t="s">
+        <v>276</v>
+      </c>
+      <c r="C42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D42" t="s">
+        <v>221</v>
+      </c>
+      <c r="E42">
+        <v>1023.01953125</v>
+      </c>
+      <c r="F42">
+        <v>2359.4037323601019</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" t="s">
+        <v>276</v>
+      </c>
+      <c r="C43" t="s">
+        <v>223</v>
+      </c>
+      <c r="D43" t="s">
+        <v>224</v>
+      </c>
+      <c r="E43">
+        <v>1016.0234375</v>
+      </c>
+      <c r="F43">
+        <v>4255.4847751255893</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>225</v>
+      </c>
+      <c r="B44" t="s">
+        <v>276</v>
+      </c>
+      <c r="C44" t="s">
+        <v>226</v>
+      </c>
+      <c r="D44" t="s">
+        <v>227</v>
+      </c>
+      <c r="E44">
+        <v>1016.99609375</v>
+      </c>
+      <c r="F44">
+        <v>3797.2673002046472</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>228</v>
+      </c>
+      <c r="B45" t="s">
+        <v>276</v>
+      </c>
+      <c r="C45" t="s">
+        <v>229</v>
+      </c>
+      <c r="D45" t="s">
+        <v>230</v>
+      </c>
+      <c r="E45">
+        <v>1020.2734375</v>
+      </c>
+      <c r="F45">
+        <v>2656.4271417840419</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" t="s">
+        <v>276</v>
+      </c>
+      <c r="C46" t="s">
+        <v>235</v>
+      </c>
+      <c r="D46" t="s">
+        <v>236</v>
+      </c>
+      <c r="E46">
+        <v>1023.9765625</v>
+      </c>
+      <c r="F46">
+        <v>2797.1053046655538</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B47" t="s">
+        <v>276</v>
+      </c>
+      <c r="C47" t="s">
+        <v>238</v>
+      </c>
+      <c r="D47" t="s">
+        <v>239</v>
+      </c>
+      <c r="E47">
+        <v>1018.609375</v>
+      </c>
+      <c r="F47">
+        <v>2164.0140102306659</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>243</v>
+      </c>
+      <c r="B48" t="s">
+        <v>276</v>
+      </c>
+      <c r="C48" t="s">
+        <v>244</v>
+      </c>
+      <c r="D48" t="s">
+        <v>245</v>
+      </c>
+      <c r="E48">
+        <v>1023.296875</v>
+      </c>
+      <c r="F48">
+        <v>1943.9428415568791</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>246</v>
+      </c>
+      <c r="B49" t="s">
+        <v>276</v>
+      </c>
+      <c r="C49" t="s">
+        <v>247</v>
+      </c>
+      <c r="D49" t="s">
+        <v>248</v>
+      </c>
+      <c r="E49">
+        <v>1022.26171875</v>
+      </c>
+      <c r="F49">
+        <v>2332.398908802812</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>249</v>
+      </c>
+      <c r="B50" t="s">
+        <v>276</v>
+      </c>
+      <c r="C50" t="s">
+        <v>250</v>
+      </c>
+      <c r="D50" t="s">
+        <v>251</v>
+      </c>
+      <c r="E50">
+        <v>1023.25390625</v>
+      </c>
+      <c r="F50">
+        <v>2537.1327047107461</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" t="s">
+        <v>276</v>
+      </c>
+      <c r="C51" t="s">
+        <v>253</v>
+      </c>
+      <c r="D51" t="s">
+        <v>254</v>
+      </c>
+      <c r="E51">
+        <v>1022.7109375</v>
+      </c>
+      <c r="F51">
+        <v>2300.377883876989</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>255</v>
+      </c>
+      <c r="B52" t="s">
+        <v>276</v>
+      </c>
+      <c r="C52" t="s">
+        <v>256</v>
+      </c>
+      <c r="D52" t="s">
+        <v>257</v>
+      </c>
+      <c r="E52">
+        <v>1022.359375</v>
+      </c>
+      <c r="F52">
+        <v>2829.2264753770792</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>258</v>
+      </c>
+      <c r="B53" t="s">
+        <v>276</v>
+      </c>
+      <c r="C53" t="s">
+        <v>259</v>
+      </c>
+      <c r="D53" t="s">
+        <v>260</v>
+      </c>
+      <c r="E53">
+        <v>1017.63671875</v>
+      </c>
+      <c r="F53">
+        <v>2995.013842840794</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>261</v>
+      </c>
+      <c r="B54" t="s">
+        <v>276</v>
+      </c>
+      <c r="C54" t="s">
+        <v>262</v>
+      </c>
+      <c r="D54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E54">
+        <v>1022.88671875</v>
+      </c>
+      <c r="F54">
+        <v>2875.398227661015</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>264</v>
+      </c>
+      <c r="B55" t="s">
+        <v>276</v>
+      </c>
+      <c r="C55" t="s">
+        <v>265</v>
+      </c>
+      <c r="D55" t="s">
+        <v>266</v>
+      </c>
+      <c r="E55">
+        <v>1021.734375</v>
+      </c>
+      <c r="F55">
+        <v>2206.357084810471</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" t="s">
+        <v>276</v>
+      </c>
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56">
+        <v>1017.15234375</v>
+      </c>
+      <c r="F56">
+        <v>3837.241897396505</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" t="s">
+        <v>276</v>
+      </c>
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57">
+        <v>1020.0625</v>
+      </c>
+      <c r="F57">
+        <v>2971.7710766529858</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" t="s">
+        <v>276</v>
+      </c>
+      <c r="C58" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58">
+        <v>1021.22265625</v>
+      </c>
+      <c r="F58">
+        <v>2940.3185336508091</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" t="s">
+        <v>276</v>
+      </c>
+      <c r="C59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59">
+        <v>1017.94140625</v>
+      </c>
+      <c r="F59">
+        <v>2418.6866465549069</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>276</v>
+      </c>
+      <c r="C60" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60">
+        <v>1016.796875</v>
+      </c>
+      <c r="F60">
+        <v>4030.5321741896241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>276</v>
+      </c>
+      <c r="C61" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" t="s">
+        <v>62</v>
+      </c>
+      <c r="E61">
+        <v>1023.33984375</v>
+      </c>
+      <c r="F61">
+        <v>2024.6088389890219</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>276</v>
+      </c>
+      <c r="C62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E62">
+        <v>1020.375</v>
+      </c>
+      <c r="F62">
+        <v>2650.8959688188438</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>276</v>
+      </c>
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63">
+        <v>1022.0546875</v>
+      </c>
+      <c r="F63">
+        <v>2550.8339898716022</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" t="s">
+        <v>276</v>
+      </c>
+      <c r="C64" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" t="s">
+        <v>71</v>
+      </c>
+      <c r="E64">
+        <v>1017.1796875</v>
+      </c>
+      <c r="F64">
+        <v>3140.1024787556539</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>276</v>
+      </c>
+      <c r="C65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" t="s">
+        <v>74</v>
+      </c>
+      <c r="E65">
+        <v>1021.734375</v>
+      </c>
+      <c r="F65">
+        <v>1881.3637610303749</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" t="s">
+        <v>276</v>
+      </c>
+      <c r="C66" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66">
+        <v>1023.4296875</v>
+      </c>
+      <c r="F66">
+        <v>2174.5795325748959</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" t="s">
+        <v>276</v>
+      </c>
+      <c r="C67" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" t="s">
+        <v>80</v>
+      </c>
+      <c r="E67">
+        <v>1020.765625</v>
+      </c>
+      <c r="F67">
+        <v>2987.8456298089359</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" t="s">
+        <v>276</v>
+      </c>
+      <c r="C68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" t="s">
+        <v>83</v>
+      </c>
+      <c r="E68">
+        <v>1017.45703125</v>
+      </c>
+      <c r="F68">
+        <v>3000.985629448046</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" t="s">
+        <v>276</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" t="s">
+        <v>86</v>
+      </c>
+      <c r="E69">
+        <v>1016.5859375</v>
+      </c>
+      <c r="F69">
+        <v>4813.3567841660406</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" t="s">
+        <v>276</v>
+      </c>
+      <c r="C70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" t="s">
+        <v>89</v>
+      </c>
+      <c r="E70">
+        <v>1022.67578125</v>
+      </c>
+      <c r="F70">
+        <v>2344.8939675603569</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" t="s">
+        <v>276</v>
+      </c>
+      <c r="C71" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" t="s">
+        <v>92</v>
+      </c>
+      <c r="E71">
+        <v>1022.4765625</v>
+      </c>
+      <c r="F71">
+        <v>1874.0616984108831</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" t="s">
+        <v>276</v>
+      </c>
+      <c r="C72" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72" t="s">
+        <v>95</v>
+      </c>
+      <c r="E72">
+        <v>1022.796875</v>
+      </c>
+      <c r="F72">
+        <v>2316.1143472803178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" t="s">
+        <v>276</v>
+      </c>
+      <c r="C73" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73">
+        <v>1021.9453125</v>
+      </c>
+      <c r="F73">
+        <v>2222.2530420604171</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>280</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74">
+        <v>1018</v>
+      </c>
+      <c r="F74">
+        <v>2080.1737138247609</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>280</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75">
+        <v>1016.328125</v>
+      </c>
+      <c r="F75">
+        <v>3252.4988641172472</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>280</v>
+      </c>
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76">
+        <v>1022.921875</v>
+      </c>
+      <c r="F76">
+        <v>2502.478643482094</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" t="s">
+        <v>280</v>
+      </c>
+      <c r="C77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77">
+        <v>1018.19140625</v>
+      </c>
+      <c r="F77">
+        <v>2315.2083326387492</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" t="s">
+        <v>280</v>
+      </c>
+      <c r="C78" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78">
+        <v>1016.33203125</v>
+      </c>
+      <c r="F78">
+        <v>2549.869474889646</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" t="s">
+        <v>280</v>
+      </c>
+      <c r="C79" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79">
+        <v>1019.26953125</v>
+      </c>
+      <c r="F79">
+        <v>3041.4540008146851</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>267</v>
+      </c>
+      <c r="B80" t="s">
+        <v>279</v>
+      </c>
+      <c r="C80" t="s">
+        <v>268</v>
+      </c>
+      <c r="D80" t="s">
+        <v>269</v>
+      </c>
+      <c r="E80">
+        <v>1018.63671875</v>
+      </c>
+      <c r="F80">
+        <v>2563.5407727999932</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>279</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>1022.875</v>
+      </c>
+      <c r="F81">
+        <v>2665.2016472140531</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>204</v>
+      </c>
+      <c r="B82" t="s">
+        <v>277</v>
+      </c>
+      <c r="C82" t="s">
+        <v>205</v>
+      </c>
+      <c r="D82" t="s">
+        <v>206</v>
+      </c>
+      <c r="E82">
+        <v>1022.640625</v>
+      </c>
+      <c r="F82">
+        <v>3203.785491010924</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>231</v>
+      </c>
+      <c r="B83" t="s">
+        <v>277</v>
+      </c>
+      <c r="C83" t="s">
+        <v>232</v>
+      </c>
+      <c r="D83" t="s">
+        <v>233</v>
+      </c>
+      <c r="E83">
+        <v>1014.3515625</v>
+      </c>
+      <c r="F83">
+        <v>3596.146845474515</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>240</v>
+      </c>
+      <c r="B84" t="s">
+        <v>277</v>
+      </c>
+      <c r="C84" t="s">
+        <v>241</v>
+      </c>
+      <c r="D84" t="s">
+        <v>242</v>
+      </c>
+      <c r="E84">
+        <v>1019.65234375</v>
+      </c>
+      <c r="F84">
+        <v>2565.5344274958352</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>282</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85">
+        <v>1018.91796875</v>
+      </c>
+      <c r="F85">
+        <v>2064.462141739858</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>39</v>
+      </c>
+      <c r="B86" t="s">
+        <v>282</v>
+      </c>
+      <c r="C86" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" t="s">
+        <v>41</v>
+      </c>
+      <c r="E86">
+        <v>1019.94921875</v>
+      </c>
+      <c r="F86">
+        <v>2868.7062880247108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" t="s">
+        <v>283</v>
+      </c>
+      <c r="C87" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87">
+        <v>1019.8671875</v>
+      </c>
+      <c r="F87">
+        <v>2022.536174240362</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" t="s">
+        <v>283</v>
+      </c>
+      <c r="C88" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88">
+        <v>1018.33984375</v>
+      </c>
+      <c r="F88">
+        <v>2160.8454991565168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>42</v>
+      </c>
+      <c r="B89" t="s">
+        <v>283</v>
+      </c>
+      <c r="C89" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" t="s">
+        <v>44</v>
+      </c>
+      <c r="E89">
+        <v>1020.25</v>
+      </c>
+      <c r="F89">
+        <v>2878.931483098374</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>45</v>
+      </c>
+      <c r="B90" t="s">
+        <v>284</v>
+      </c>
+      <c r="C90" t="s">
+        <v>46</v>
+      </c>
+      <c r="D90" t="s">
+        <v>47</v>
+      </c>
+      <c r="E90">
+        <v>1016.66015625</v>
+      </c>
+      <c r="F90">
+        <v>1591.7759434158679</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" t="s">
+        <v>284</v>
+      </c>
+      <c r="C91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D91" t="s">
+        <v>50</v>
+      </c>
+      <c r="E91">
+        <v>1019.6875</v>
+      </c>
+      <c r="F91">
+        <v>2608.4899569422819</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F91">
+    <sortCondition ref="B2:B91"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9E3242-EE12-495E-81D2-F0DB59E36FC7}">
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1023.671875</v>
+      </c>
+      <c r="B2">
+        <v>1022.97265625</v>
+      </c>
+      <c r="C2">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1023.765625</v>
+      </c>
+      <c r="B3">
+        <v>1020.07421875</v>
+      </c>
+      <c r="C3">
+        <v>1016.328125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1023.5390625</v>
+      </c>
+      <c r="B4">
+        <v>1023.99609375</v>
+      </c>
+      <c r="C4">
+        <v>1022.921875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1023.59765625</v>
+      </c>
+      <c r="B5">
+        <v>1017.1328125</v>
+      </c>
+      <c r="C5">
+        <v>1018.19140625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1021.3359375</v>
+      </c>
+      <c r="B6">
+        <v>1019.6328125</v>
+      </c>
+      <c r="C6">
+        <v>1016.33203125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1024</v>
+      </c>
+      <c r="B7">
+        <v>1021.52734375</v>
+      </c>
+      <c r="C7">
+        <v>1019.26953125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1023.4921875</v>
+      </c>
+      <c r="B8">
+        <v>1019.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1016.86328125</v>
+      </c>
+      <c r="B9">
+        <v>1022.328125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1016.46875</v>
+      </c>
+      <c r="B10">
+        <v>1016.015625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1022.7734375</v>
+      </c>
+      <c r="B11">
+        <v>1023.01953125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1023.85546875</v>
+      </c>
+      <c r="B12">
+        <v>1016.0234375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1016.125</v>
+      </c>
+      <c r="B13">
+        <v>1016.99609375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1023.94921875</v>
+      </c>
+      <c r="B14">
+        <v>1020.2734375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1020.29296875</v>
+      </c>
+      <c r="B15">
+        <v>1023.9765625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1016.9140625</v>
+      </c>
+      <c r="B16">
+        <v>1018.609375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1014.4375</v>
+      </c>
+      <c r="B17">
+        <v>1023.296875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1020.33984375</v>
+      </c>
+      <c r="B18">
+        <v>1022.26171875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1021.8046875</v>
+      </c>
+      <c r="B19">
+        <v>1023.25390625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1016.1640625</v>
+      </c>
+      <c r="B20">
+        <v>1022.7109375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1021.99609375</v>
+      </c>
+      <c r="B21">
+        <v>1022.359375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1016.12109375</v>
+      </c>
+      <c r="B22">
+        <v>1017.63671875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1021.359375</v>
+      </c>
+      <c r="B23">
+        <v>1022.88671875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1015.98828125</v>
+      </c>
+      <c r="B24">
+        <v>1021.734375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1022.61328125</v>
+      </c>
+      <c r="B25">
+        <v>1017.15234375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1018.05859375</v>
+      </c>
+      <c r="B26">
+        <v>1020.0625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1016.7421875</v>
+      </c>
+      <c r="B27">
+        <v>1021.22265625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1019.6875</v>
+      </c>
+      <c r="B28">
+        <v>1017.94140625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1018.5</v>
+      </c>
+      <c r="B29">
+        <v>1016.796875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1016.94921875</v>
+      </c>
+      <c r="B30">
+        <v>1023.33984375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>1020.375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>1022.0546875</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>1017.1796875</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>1021.734375</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>1023.4296875</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>1020.765625</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>1017.45703125</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>1016.5859375</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>1022.67578125</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>1022.4765625</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>1022.796875</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>1021.9453125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>